--- a/KARTER/dati raccolti karter.xlsx
+++ b/KARTER/dati raccolti karter.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="misure grossolane" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="misure grossolane girate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="misure_meno_grossolane" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">h (cm) (massa 1.4kg)</t>
   </si>
@@ -26,6 +27,9 @@
   </si>
   <si>
     <t>t3</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -746,7 +750,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.00390625"/>
     <col bestFit="1" min="3" max="3" width="9.6640625"/>
@@ -862,4 +866,35 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/KARTER/dati raccolti karter.xlsx
+++ b/KARTER/dati raccolti karter.xlsx
@@ -29,7 +29,7 @@
     <t>t3</t>
   </si>
   <si>
-    <t>m</t>
+    <t>d1(cm)</t>
   </si>
 </sst>
 </file>
@@ -67,9 +67,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,9 +876,9 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -887,9 +888,242 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.0211000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0024000000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.9923999999999999</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.984</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.9245000000000001</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.9677</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.8697999999999999</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.9520999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.8317000000000001</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.9399</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.8089</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.9199999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.7956000000000001</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.9207000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.7916000000000001</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.9132</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.7964</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.9094</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.8058000000000001</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.9077</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.8214999999999999</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.9092</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.8411</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="2">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.9147000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.8643000000000001</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.9245000000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.8883000000000001</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="2">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.9368000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.9172</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.9539</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.9458</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="2">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.9756</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.0024000000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.0064000000000002</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/KARTER/dati raccolti karter.xlsx
+++ b/KARTER/dati raccolti karter.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="misure grossolane" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="misure grossolane girate" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="misure_meno_grossolane" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="misure_intorno_sensibile" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">h (cm) (massa 1.4kg)</t>
   </si>
@@ -30,6 +31,24 @@
   </si>
   <si>
     <t>d1(cm)</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
   </si>
 </sst>
 </file>
@@ -1131,4 +1150,302 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.0552999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0053000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0053999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.0568</v>
+      </c>
+      <c r="F2">
+        <v>2.0137</v>
+      </c>
+      <c r="G2">
+        <v>2.0135000000000001</v>
+      </c>
+      <c r="H2">
+        <v>2.0133999999999999</v>
+      </c>
+      <c r="I2">
+        <v>2.0127999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>7.5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0505</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.0512000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0518999999999998</v>
+      </c>
+      <c r="F3">
+        <v>2.0123000000000002</v>
+      </c>
+      <c r="G3">
+        <v>2.0123000000000002</v>
+      </c>
+      <c r="H3">
+        <v>2.0123000000000002</v>
+      </c>
+      <c r="I3">
+        <v>2.0118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.0415000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0419</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.0421999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0415999999999999</v>
+      </c>
+      <c r="F4">
+        <v>2.0118999999999998</v>
+      </c>
+      <c r="G4">
+        <v>2.0106999999999999</v>
+      </c>
+      <c r="H4">
+        <v>2.0110999999999999</v>
+      </c>
+      <c r="I4">
+        <v>2.0110999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>8.5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.0306000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0306000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.0306000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.0301999999999998</v>
+      </c>
+      <c r="F5">
+        <v>2.0087000000000002</v>
+      </c>
+      <c r="G5">
+        <v>2.0091999999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.0085000000000002</v>
+      </c>
+      <c r="I5">
+        <v>2.0083000000000002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.0173000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.0185</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0179</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0185</v>
+      </c>
+      <c r="F6">
+        <v>2.0066999999999999</v>
+      </c>
+      <c r="G6">
+        <v>2.0066000000000002</v>
+      </c>
+      <c r="H6">
+        <v>2.0066000000000002</v>
+      </c>
+      <c r="I6">
+        <v>2.0659999999999998</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>9.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.0118</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.0103</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.0116000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.0101</v>
+      </c>
+      <c r="F7">
+        <v>2.0049000000000001</v>
+      </c>
+      <c r="G7">
+        <v>2.0041000000000002</v>
+      </c>
+      <c r="H7">
+        <v>2.0034000000000001</v>
+      </c>
+      <c r="I7">
+        <v>2.0028999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/KARTER/dati raccolti karter.xlsx
+++ b/KARTER/dati raccolti karter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">h (cm) (massa 1.4kg)</t>
   </si>
@@ -50,6 +50,12 @@
   <si>
     <t>T4</t>
   </si>
+  <si>
+    <t xml:space="preserve">AVG t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG T</t>
+  </si>
 </sst>
 </file>
 
@@ -58,20 +64,32 @@
   <numFmts count="1">
     <numFmt numFmtId="160" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,16 +101,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1159,7 +1182,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1189,38 +1212,52 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>2.0552999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0053000000000001</v>
+        <v>2.0552999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>2.0053999999999998</v>
+        <v>2.0554000000000001</v>
       </c>
       <c r="E2" s="1">
         <v>2.0568</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2.0137</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>2.0135000000000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>2.0133999999999999</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>2.0127999999999999</v>
       </c>
+      <c r="J2" s="5">
+        <f>AVERAGE(B2:E2)</f>
+        <v>2.0556999999999999</v>
+      </c>
+      <c r="K2" s="5">
+        <f>AVERAGE(F2:I2)</f>
+        <v>2.01335</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>7.5</v>
       </c>
       <c r="B3" s="1">
@@ -1235,21 +1272,29 @@
       <c r="E3" s="1">
         <v>2.0518999999999998</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2.0123000000000002</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>2.0123000000000002</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2.0123000000000002</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>2.0118</v>
       </c>
+      <c r="J3" s="5">
+        <f>AVERAGE(B3:E3)</f>
+        <v>2.0511499999999998</v>
+      </c>
+      <c r="K3" s="5">
+        <f>AVERAGE(F3:I3)</f>
+        <v>2.012175</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>8</v>
       </c>
       <c r="B4" s="1">
@@ -1264,21 +1309,29 @@
       <c r="E4" s="1">
         <v>2.0415999999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2.0118999999999998</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2.0106999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>2.0110999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>2.0110999999999999</v>
       </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(B4:E4)</f>
+        <v>2.0418000000000003</v>
+      </c>
+      <c r="K4" s="5">
+        <f>AVERAGE(F4:I4)</f>
+        <v>2.0111999999999997</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>8.5</v>
       </c>
       <c r="B5" s="1">
@@ -1293,21 +1346,29 @@
       <c r="E5" s="1">
         <v>2.0301999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2.0087000000000002</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>2.0091999999999999</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>2.0085000000000002</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>2.0083000000000002</v>
       </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(B5:E5)</f>
+        <v>2.0305</v>
+      </c>
+      <c r="K5" s="5">
+        <f>AVERAGE(F5:I5)</f>
+        <v>2.0086750000000002</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>9</v>
       </c>
       <c r="B6" s="1">
@@ -1322,21 +1383,29 @@
       <c r="E6" s="1">
         <v>2.0185</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2.0066999999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2.0066000000000002</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>2.0066000000000002</v>
       </c>
-      <c r="I6">
-        <v>2.0659999999999998</v>
+      <c r="I6" s="1">
+        <v>2.0066000000000002</v>
+      </c>
+      <c r="J6" s="5">
+        <f>AVERAGE(B6:E6)</f>
+        <v>2.0180500000000001</v>
+      </c>
+      <c r="K6" s="5">
+        <f>AVERAGE(F6:I6)</f>
+        <v>2.0066250000000001</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>9.5</v>
       </c>
       <c r="B7" s="1">
@@ -1351,17 +1420,25 @@
       <c r="E7" s="1">
         <v>2.0101</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2.0049000000000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>2.0041000000000002</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>2.0034000000000001</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>2.0028999999999999</v>
+      </c>
+      <c r="J7" s="5">
+        <f>AVERAGE(B7:E7)</f>
+        <v>2.0109499999999998</v>
+      </c>
+      <c r="K7" s="5">
+        <f>AVERAGE(F7:I7)</f>
+        <v>2.003825</v>
       </c>
     </row>
     <row r="8">

--- a/KARTER/dati raccolti karter.xlsx
+++ b/KARTER/dati raccolti karter.xlsx
@@ -1248,11 +1248,11 @@
         <v>2.0127999999999999</v>
       </c>
       <c r="J2" s="5">
-        <f>AVERAGE(B2:E2)</f>
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:E2)</f>
         <v>2.0556999999999999</v>
       </c>
       <c r="K2" s="5">
-        <f>AVERAGE(F2:I2)</f>
+        <f t="shared" ref="K2:K7" si="1">AVERAGE(F2:I2)</f>
         <v>2.01335</v>
       </c>
     </row>
@@ -1285,11 +1285,11 @@
         <v>2.0118</v>
       </c>
       <c r="J3" s="5">
-        <f>AVERAGE(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>2.0511499999999998</v>
       </c>
       <c r="K3" s="5">
-        <f>AVERAGE(F3:I3)</f>
+        <f t="shared" si="1"/>
         <v>2.012175</v>
       </c>
     </row>
@@ -1322,11 +1322,11 @@
         <v>2.0110999999999999</v>
       </c>
       <c r="J4" s="5">
-        <f>AVERAGE(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>2.0418000000000003</v>
       </c>
       <c r="K4" s="5">
-        <f>AVERAGE(F4:I4)</f>
+        <f t="shared" si="1"/>
         <v>2.0111999999999997</v>
       </c>
     </row>
@@ -1359,11 +1359,11 @@
         <v>2.0083000000000002</v>
       </c>
       <c r="J5" s="5">
-        <f>AVERAGE(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>2.0305</v>
       </c>
       <c r="K5" s="5">
-        <f>AVERAGE(F5:I5)</f>
+        <f t="shared" si="1"/>
         <v>2.0086750000000002</v>
       </c>
     </row>
@@ -1396,11 +1396,11 @@
         <v>2.0066000000000002</v>
       </c>
       <c r="J6" s="5">
-        <f>AVERAGE(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>2.0180500000000001</v>
       </c>
       <c r="K6" s="5">
-        <f>AVERAGE(F6:I6)</f>
+        <f t="shared" si="1"/>
         <v>2.0066250000000001</v>
       </c>
     </row>
@@ -1433,31 +1433,124 @@
         <v>2.0028999999999999</v>
       </c>
       <c r="J7" s="5">
-        <f>AVERAGE(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>2.0109499999999998</v>
       </c>
       <c r="K7" s="5">
-        <f>AVERAGE(F7:I7)</f>
+        <f t="shared" si="1"/>
         <v>2.003825</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="4">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.0055000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.0047999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0047000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0045000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.0023</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.0026999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.0024000000000002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.0024999999999999</v>
+      </c>
+      <c r="J8" s="5">
+        <f>AVERAGE(B8:E8)</f>
+        <v>2.0048750000000002</v>
+      </c>
+      <c r="K8" s="5">
+        <f>AVERAGE(F8:I8)</f>
+        <v>2.002475</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.9952000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.9951000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.9944999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.0015000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.0013999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.0011000000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.0011999999999999</v>
+      </c>
+      <c r="J9" s="5">
+        <f>AVERAGE(B9:E9)</f>
+        <v>1.9949500000000002</v>
+      </c>
+      <c r="K9" s="5">
+        <f>AVERAGE(F9:I9)</f>
+        <v>2.0013000000000001</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="4">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.9896</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.9885999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.9877</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.9883</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.9996</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.9992000000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.9995000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.9998</v>
+      </c>
+      <c r="J10" s="5">
+        <f>AVERAGE(B10:E10)</f>
+        <v>1.98855</v>
+      </c>
+      <c r="K10" s="5">
+        <f>AVERAGE(F10:I10)</f>
+        <v>1.9995250000000002</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="1"/>

--- a/KARTER/dati raccolti karter.xlsx
+++ b/KARTER/dati raccolti karter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">h (cm) (massa 1.4kg)</t>
   </si>
@@ -56,13 +56,20 @@
   <si>
     <t xml:space="preserve">AVG T</t>
   </si>
+  <si>
+    <t xml:space="preserve">DEVSTD t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVSTD T</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="160" formatCode="0.0000"/>
+    <numFmt numFmtId="161" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -105,13 +112,14 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,6 +1226,12 @@
       <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4">
@@ -1248,12 +1262,20 @@
         <v>2.0127999999999999</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:E2)</f>
+        <f t="shared" ref="J2:J9" si="0">AVERAGE(B2:E2)</f>
         <v>2.0556999999999999</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K7" si="1">AVERAGE(F2:I2)</f>
+        <f t="shared" ref="K2:K9" si="1">AVERAGE(F2:I2)</f>
         <v>2.01335</v>
+      </c>
+      <c r="L2" s="6">
+        <f>STDEV(B2:E2)</f>
+        <v>0.00073484692283495303</v>
+      </c>
+      <c r="M2" s="6">
+        <f>STDEV(F2:I2)</f>
+        <v>0.00038729833462079462</v>
       </c>
     </row>
     <row r="3">
@@ -1292,6 +1314,14 @@
         <f t="shared" si="1"/>
         <v>2.012175</v>
       </c>
+      <c r="L3" s="6">
+        <f>STDEV(B3:E3)</f>
+        <v>0.00058022983951756368</v>
+      </c>
+      <c r="M3" s="6">
+        <f>STDEV(F3:I3)</f>
+        <v>0.00025000000000008349</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4">
@@ -1329,6 +1359,14 @@
         <f t="shared" si="1"/>
         <v>2.0111999999999997</v>
       </c>
+      <c r="L4" s="6">
+        <f>STDEV(B4:E4)</f>
+        <v>0.0003162277660167563</v>
+      </c>
+      <c r="M4" s="6">
+        <f>STDEV(F4:I4)</f>
+        <v>0.00050332229568466117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1366,6 +1404,14 @@
         <f t="shared" si="1"/>
         <v>2.0086750000000002</v>
       </c>
+      <c r="L5" s="6">
+        <f>STDEV(B5:E5)</f>
+        <v>0.00020000000000020002</v>
+      </c>
+      <c r="M5" s="6">
+        <f>STDEV(F5:I5)</f>
+        <v>0.00038622100754173911</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -1403,6 +1449,14 @@
         <f t="shared" si="1"/>
         <v>2.0066250000000001</v>
       </c>
+      <c r="L6" s="6">
+        <f>STDEV(B6:E6)</f>
+        <v>0.00057445626465373967</v>
+      </c>
+      <c r="M6" s="6">
+        <f>STDEV(F6:I6)</f>
+        <v>4.9999999999883471e-05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -1440,6 +1494,14 @@
         <f t="shared" si="1"/>
         <v>2.003825</v>
       </c>
+      <c r="L7" s="6">
+        <f>STDEV(B7:E7)</f>
+        <v>0.00087368949480544128</v>
+      </c>
+      <c r="M7" s="6">
+        <f>STDEV(F7:I7)</f>
+        <v>0.00086938675704976293</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -1470,12 +1532,20 @@
         <v>2.0024999999999999</v>
       </c>
       <c r="J8" s="5">
-        <f>AVERAGE(B8:E8)</f>
+        <f t="shared" si="0"/>
         <v>2.0048750000000002</v>
       </c>
       <c r="K8" s="5">
-        <f>AVERAGE(F8:I8)</f>
+        <f t="shared" si="1"/>
         <v>2.002475</v>
+      </c>
+      <c r="L8" s="6">
+        <f>STDEV(B8:E8)</f>
+        <v>0.0004349329450232945</v>
+      </c>
+      <c r="M8" s="6">
+        <f>STDEV(F8:I8)</f>
+        <v>0.00017078251276594198</v>
       </c>
     </row>
     <row r="9">
@@ -1507,12 +1577,20 @@
         <v>2.0011999999999999</v>
       </c>
       <c r="J9" s="5">
-        <f>AVERAGE(B9:E9)</f>
+        <f t="shared" si="0"/>
         <v>1.9949500000000002</v>
       </c>
       <c r="K9" s="5">
-        <f>AVERAGE(F9:I9)</f>
+        <f t="shared" si="1"/>
         <v>2.0013000000000001</v>
+      </c>
+      <c r="L9" s="6">
+        <f>STDEV(B9:E9)</f>
+        <v>0.00031091263510303336</v>
+      </c>
+      <c r="M9" s="6">
+        <f>STDEV(F9:I9)</f>
+        <v>0.00018257418583503526</v>
       </c>
     </row>
     <row r="10">
@@ -1550,6 +1628,14 @@
       <c r="K10" s="5">
         <f>AVERAGE(F10:I10)</f>
         <v>1.9995250000000002</v>
+      </c>
+      <c r="L10" s="6">
+        <f>STDEV(B10:E10)</f>
+        <v>0.0007937253933193877</v>
+      </c>
+      <c r="M10" s="6">
+        <f>STDEV(F10:I10)</f>
+        <v>0.00024999999999997247</v>
       </c>
     </row>
     <row r="11">

--- a/KARTER/dati raccolti karter.xlsx
+++ b/KARTER/dati raccolti karter.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="misure grossolane" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="misure grossolane girate" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="misure_meno_grossolane" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="misure_intorno_sensibile" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="biglie caduta libera" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -57,21 +58,20 @@
     <t xml:space="preserve">AVG T</t>
   </si>
   <si>
-    <t xml:space="preserve">DEVSTD t</t>
+    <t>h</t>
   </si>
   <si>
-    <t xml:space="preserve">DEVSTD T</t>
+    <t>t5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="160" formatCode="0.0000"/>
-    <numFmt numFmtId="161" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -84,8 +84,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +104,12 @@
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -108,22 +120,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1226,12 +1239,8 @@
       <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
+      <c r="L1"/>
+      <c r="M1"/>
     </row>
     <row r="2">
       <c r="A2" s="4">
@@ -1269,14 +1278,8 @@
         <f t="shared" ref="K2:K9" si="1">AVERAGE(F2:I2)</f>
         <v>2.01335</v>
       </c>
-      <c r="L2" s="6">
-        <f>STDEV(B2:E2)</f>
-        <v>0.00073484692283495303</v>
-      </c>
-      <c r="M2" s="6">
-        <f>STDEV(F2:I2)</f>
-        <v>0.00038729833462079462</v>
-      </c>
+      <c r="L2"/>
+      <c r="M2"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
@@ -1314,14 +1317,8 @@
         <f t="shared" si="1"/>
         <v>2.012175</v>
       </c>
-      <c r="L3" s="6">
-        <f>STDEV(B3:E3)</f>
-        <v>0.00058022983951756368</v>
-      </c>
-      <c r="M3" s="6">
-        <f>STDEV(F3:I3)</f>
-        <v>0.00025000000000008349</v>
-      </c>
+      <c r="L3"/>
+      <c r="M3"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
@@ -1359,14 +1356,8 @@
         <f t="shared" si="1"/>
         <v>2.0111999999999997</v>
       </c>
-      <c r="L4" s="6">
-        <f>STDEV(B4:E4)</f>
-        <v>0.0003162277660167563</v>
-      </c>
-      <c r="M4" s="6">
-        <f>STDEV(F4:I4)</f>
-        <v>0.00050332229568466117</v>
-      </c>
+      <c r="L4"/>
+      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1404,14 +1395,8 @@
         <f t="shared" si="1"/>
         <v>2.0086750000000002</v>
       </c>
-      <c r="L5" s="6">
-        <f>STDEV(B5:E5)</f>
-        <v>0.00020000000000020002</v>
-      </c>
-      <c r="M5" s="6">
-        <f>STDEV(F5:I5)</f>
-        <v>0.00038622100754173911</v>
-      </c>
+      <c r="L5"/>
+      <c r="M5"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -1449,14 +1434,8 @@
         <f t="shared" si="1"/>
         <v>2.0066250000000001</v>
       </c>
-      <c r="L6" s="6">
-        <f>STDEV(B6:E6)</f>
-        <v>0.00057445626465373967</v>
-      </c>
-      <c r="M6" s="6">
-        <f>STDEV(F6:I6)</f>
-        <v>4.9999999999883471e-05</v>
-      </c>
+      <c r="L6"/>
+      <c r="M6"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -1494,14 +1473,8 @@
         <f t="shared" si="1"/>
         <v>2.003825</v>
       </c>
-      <c r="L7" s="6">
-        <f>STDEV(B7:E7)</f>
-        <v>0.00087368949480544128</v>
-      </c>
-      <c r="M7" s="6">
-        <f>STDEV(F7:I7)</f>
-        <v>0.00086938675704976293</v>
-      </c>
+      <c r="L7"/>
+      <c r="M7"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -1539,14 +1512,8 @@
         <f t="shared" si="1"/>
         <v>2.002475</v>
       </c>
-      <c r="L8" s="6">
-        <f>STDEV(B8:E8)</f>
-        <v>0.0004349329450232945</v>
-      </c>
-      <c r="M8" s="6">
-        <f>STDEV(F8:I8)</f>
-        <v>0.00017078251276594198</v>
-      </c>
+      <c r="L8"/>
+      <c r="M8"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -1584,14 +1551,8 @@
         <f t="shared" si="1"/>
         <v>2.0013000000000001</v>
       </c>
-      <c r="L9" s="6">
-        <f>STDEV(B9:E9)</f>
-        <v>0.00031091263510303336</v>
-      </c>
-      <c r="M9" s="6">
-        <f>STDEV(F9:I9)</f>
-        <v>0.00018257418583503526</v>
-      </c>
+      <c r="L9"/>
+      <c r="M9"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -1629,44 +1590,48 @@
         <f>AVERAGE(F10:I10)</f>
         <v>1.9995250000000002</v>
       </c>
-      <c r="L10" s="6">
-        <f>STDEV(B10:E10)</f>
-        <v>0.0007937253933193877</v>
-      </c>
-      <c r="M10" s="6">
-        <f>STDEV(F10:I10)</f>
-        <v>0.00024999999999997247</v>
-      </c>
+      <c r="L10"/>
+      <c r="M10"/>
     </row>
     <row r="11">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
+      <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
+      <c r="L15"/>
+      <c r="M15"/>
     </row>
     <row r="16">
       <c r="B16" s="1"/>
@@ -1698,6 +1663,74 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/KARTER/dati raccolti karter.xlsx
+++ b/KARTER/dati raccolti karter.xlsx
@@ -10,14 +10,14 @@
     <sheet name="misure grossolane girate" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="misure_meno_grossolane" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="misure_intorno_sensibile" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="biglie caduta libera" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="caduta_libera" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">h (cm) (massa 1.4kg)</t>
   </si>
@@ -63,13 +63,29 @@
   <si>
     <t>t5</t>
   </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="160" formatCode="0.0000"/>
+    <numFmt numFmtId="161" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -125,13 +141,14 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="161" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,8 +1256,7 @@
       <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1"/>
-      <c r="M1"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="4">
@@ -1278,8 +1294,6 @@
         <f t="shared" ref="K2:K9" si="1">AVERAGE(F2:I2)</f>
         <v>2.01335</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
@@ -1317,8 +1331,6 @@
         <f t="shared" si="1"/>
         <v>2.012175</v>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
@@ -1356,8 +1368,6 @@
         <f t="shared" si="1"/>
         <v>2.0111999999999997</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1395,8 +1405,6 @@
         <f t="shared" si="1"/>
         <v>2.0086750000000002</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -1434,8 +1442,6 @@
         <f t="shared" si="1"/>
         <v>2.0066250000000001</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -1473,8 +1479,6 @@
         <f t="shared" si="1"/>
         <v>2.003825</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -1512,8 +1516,6 @@
         <f t="shared" si="1"/>
         <v>2.002475</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -1551,8 +1553,6 @@
         <f t="shared" si="1"/>
         <v>2.0013000000000001</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -1590,48 +1590,36 @@
         <f>AVERAGE(F10:I10)</f>
         <v>1.9995250000000002</v>
       </c>
-      <c r="L10"/>
-      <c r="M10"/>
     </row>
     <row r="11">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="L11"/>
-      <c r="M11"/>
     </row>
     <row r="12">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="L12"/>
-      <c r="M12"/>
     </row>
     <row r="13">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="L13"/>
-      <c r="M13"/>
     </row>
     <row r="14">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="L14"/>
-      <c r="M14"/>
     </row>
     <row r="15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="L15"/>
-      <c r="M15"/>
     </row>
     <row r="16">
       <c r="B16" s="1"/>
@@ -1678,9 +1666,9 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1699,38 +1687,532 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
       <c r="A2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>138</v>
+      </c>
+      <c r="C2">
+        <v>143</v>
+      </c>
+      <c r="D2">
+        <v>137</v>
+      </c>
+      <c r="E2">
+        <v>139</v>
+      </c>
+      <c r="F2">
+        <v>138</v>
+      </c>
+      <c r="G2">
+        <v>138</v>
+      </c>
+      <c r="H2">
+        <v>143</v>
+      </c>
+      <c r="I2">
+        <v>138</v>
+      </c>
+      <c r="J2">
+        <v>146</v>
+      </c>
+      <c r="K2">
+        <v>144</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:L9" si="2">AVERAGE(B2:K2)</f>
+        <v>140.40000000000001</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
       <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>179</v>
+      </c>
+      <c r="C3">
+        <v>169</v>
+      </c>
+      <c r="D3">
+        <v>169</v>
+      </c>
+      <c r="E3">
+        <v>170</v>
+      </c>
+      <c r="F3">
+        <v>174</v>
+      </c>
+      <c r="G3">
+        <v>171</v>
+      </c>
+      <c r="H3">
+        <v>170</v>
+      </c>
+      <c r="I3">
+        <v>171</v>
+      </c>
+      <c r="J3">
+        <v>169</v>
+      </c>
+      <c r="K3">
+        <v>169</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="2"/>
+        <v>171.09999999999999</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
         <v>20</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4">
+      <c r="B4">
+        <v>198</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>206</v>
+      </c>
+      <c r="E4">
+        <v>198</v>
+      </c>
+      <c r="F4">
+        <v>197</v>
+      </c>
+      <c r="G4">
+        <v>197</v>
+      </c>
+      <c r="H4">
+        <v>198</v>
+      </c>
+      <c r="I4">
+        <v>197</v>
+      </c>
+      <c r="J4">
+        <v>197</v>
+      </c>
+      <c r="K4">
+        <v>197</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="2"/>
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>229</v>
+      </c>
+      <c r="C5">
+        <v>220</v>
+      </c>
+      <c r="D5">
+        <v>221</v>
+      </c>
+      <c r="E5">
+        <v>222</v>
+      </c>
+      <c r="F5">
+        <v>220</v>
+      </c>
+      <c r="G5">
+        <v>222</v>
+      </c>
+      <c r="H5">
+        <v>222</v>
+      </c>
+      <c r="I5">
+        <v>220</v>
+      </c>
+      <c r="J5">
+        <v>220</v>
+      </c>
+      <c r="K5">
+        <v>227</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="2"/>
+        <v>222.30000000000001</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
         <v>30</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5">
+      <c r="B6">
+        <v>242</v>
+      </c>
+      <c r="C6">
+        <v>251</v>
+      </c>
+      <c r="D6">
+        <v>243</v>
+      </c>
+      <c r="E6">
+        <v>242</v>
+      </c>
+      <c r="F6">
+        <v>243</v>
+      </c>
+      <c r="G6">
+        <v>241</v>
+      </c>
+      <c r="H6">
+        <v>249</v>
+      </c>
+      <c r="I6">
+        <v>243</v>
+      </c>
+      <c r="J6">
+        <v>243</v>
+      </c>
+      <c r="K6">
+        <v>244</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="2"/>
+        <v>244.09999999999999</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>262</v>
+      </c>
+      <c r="C7">
+        <v>263</v>
+      </c>
+      <c r="D7">
+        <v>269</v>
+      </c>
+      <c r="E7">
+        <v>268</v>
+      </c>
+      <c r="F7">
+        <v>262</v>
+      </c>
+      <c r="G7">
+        <v>261</v>
+      </c>
+      <c r="H7">
+        <v>263</v>
+      </c>
+      <c r="I7">
+        <v>269</v>
+      </c>
+      <c r="J7">
+        <v>263</v>
+      </c>
+      <c r="K7">
+        <v>269</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="2"/>
+        <v>264.89999999999998</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8">
         <v>40</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6">
+      <c r="B8">
+        <v>280</v>
+      </c>
+      <c r="C8">
+        <v>290</v>
+      </c>
+      <c r="D8">
+        <v>283</v>
+      </c>
+      <c r="E8">
+        <v>281</v>
+      </c>
+      <c r="F8">
+        <v>290</v>
+      </c>
+      <c r="G8">
+        <v>290</v>
+      </c>
+      <c r="H8">
+        <v>282</v>
+      </c>
+      <c r="I8">
+        <v>282</v>
+      </c>
+      <c r="J8">
+        <v>287</v>
+      </c>
+      <c r="K8">
+        <v>281</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="2"/>
+        <v>284.60000000000002</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>297</v>
+      </c>
+      <c r="C9">
+        <v>297</v>
+      </c>
+      <c r="D9">
+        <v>301</v>
+      </c>
+      <c r="E9">
+        <v>297</v>
+      </c>
+      <c r="F9">
+        <v>298</v>
+      </c>
+      <c r="G9">
+        <v>298</v>
+      </c>
+      <c r="H9">
+        <v>299</v>
+      </c>
+      <c r="I9">
+        <v>305</v>
+      </c>
+      <c r="J9">
+        <v>298</v>
+      </c>
+      <c r="K9">
+        <v>301</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="2"/>
+        <v>299.10000000000002</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
         <v>50</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7">
+      <c r="B10">
+        <v>321</v>
+      </c>
+      <c r="C10">
+        <v>316</v>
+      </c>
+      <c r="D10">
+        <v>324</v>
+      </c>
+      <c r="E10">
+        <v>315</v>
+      </c>
+      <c r="F10">
+        <v>315</v>
+      </c>
+      <c r="G10">
+        <v>315</v>
+      </c>
+      <c r="H10">
+        <v>315</v>
+      </c>
+      <c r="I10">
+        <v>322</v>
+      </c>
+      <c r="J10">
+        <v>315</v>
+      </c>
+      <c r="K10">
+        <v>314</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" ref="L10:L14" si="3">AVERAGE(B10:K10)</f>
+        <v>317.19999999999999</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>331</v>
+      </c>
+      <c r="C11">
+        <v>333</v>
+      </c>
+      <c r="D11">
+        <v>330</v>
+      </c>
+      <c r="E11">
+        <v>330</v>
+      </c>
+      <c r="F11">
+        <v>330</v>
+      </c>
+      <c r="G11">
+        <v>338</v>
+      </c>
+      <c r="H11">
+        <v>332</v>
+      </c>
+      <c r="I11">
+        <v>330</v>
+      </c>
+      <c r="J11">
+        <v>331</v>
+      </c>
+      <c r="K11">
+        <v>338</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="3"/>
+        <v>332.30000000000001</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12">
         <v>60</v>
       </c>
-    </row>
-    <row r="8"/>
+      <c r="B12">
+        <v>355</v>
+      </c>
+      <c r="C12">
+        <v>350</v>
+      </c>
+      <c r="D12">
+        <v>345</v>
+      </c>
+      <c r="E12">
+        <v>345</v>
+      </c>
+      <c r="F12">
+        <v>345</v>
+      </c>
+      <c r="G12">
+        <v>349</v>
+      </c>
+      <c r="H12">
+        <v>351</v>
+      </c>
+      <c r="I12">
+        <v>345</v>
+      </c>
+      <c r="J12">
+        <v>353</v>
+      </c>
+      <c r="K12">
+        <v>345</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>348.30000000000001</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>365</v>
+      </c>
+      <c r="C13">
+        <v>360</v>
+      </c>
+      <c r="D13">
+        <v>359</v>
+      </c>
+      <c r="E13">
+        <v>370</v>
+      </c>
+      <c r="F13">
+        <v>360</v>
+      </c>
+      <c r="G13">
+        <v>358</v>
+      </c>
+      <c r="H13">
+        <v>360</v>
+      </c>
+      <c r="I13">
+        <v>370</v>
+      </c>
+      <c r="J13">
+        <v>359</v>
+      </c>
+      <c r="K13">
+        <v>361</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="3"/>
+        <v>362.19999999999999</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>373</v>
+      </c>
+      <c r="C14">
+        <v>373</v>
+      </c>
+      <c r="D14">
+        <v>373</v>
+      </c>
+      <c r="E14">
+        <v>372</v>
+      </c>
+      <c r="F14">
+        <v>373</v>
+      </c>
+      <c r="G14">
+        <v>374</v>
+      </c>
+      <c r="H14">
+        <v>372</v>
+      </c>
+      <c r="I14">
+        <v>376</v>
+      </c>
+      <c r="J14">
+        <v>374</v>
+      </c>
+      <c r="K14">
+        <v>372</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="3"/>
+        <v>373.19999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
